--- a/WORK/Tests/DDL.xlsx
+++ b/WORK/Tests/DDL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="423">
   <si>
     <t>Segment</t>
   </si>
@@ -1321,9 +1321,6 @@
     <t xml:space="preserve"> %</t>
   </si>
   <si>
-    <t>° before TDC</t>
-  </si>
-  <si>
     <t>volts  / %</t>
   </si>
   <si>
@@ -1343,6 +1340,30 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>deg.C</t>
+  </si>
+  <si>
+    <t>deg. before TDC</t>
+  </si>
+  <si>
+    <t>deg.</t>
+  </si>
+  <si>
+    <t>PIDs supported 00-20</t>
+  </si>
+  <si>
+    <t>PIDs supported range 21-40</t>
+  </si>
+  <si>
+    <t>PIDs supported range 41-60</t>
+  </si>
+  <si>
+    <t>PIDs supported range 61-80</t>
+  </si>
+  <si>
+    <t>PIDs supported range 81-A0</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,16 +1517,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1516,11 +1530,17 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4256,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K143"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4269,47 +4289,72 @@
     <col min="4" max="4" width="9.06640625" style="13"/>
     <col min="7" max="7" width="33.46484375" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="19"/>
+    <col min="10" max="10" width="21" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.4">
+      <c r="A2" s="14">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.4">
+      <c r="G2" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="H2" s="18">
+        <f ca="1">NOW()</f>
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" customHeight="1">
       <c r="A3" s="14">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>5</v>
@@ -4318,22 +4363,22 @@
         <v>313</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>6</v>
+        <v>277</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="18">
-        <f ca="1">NOW()</f>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30.75" customHeight="1">
+        <f t="shared" ref="H3:H66" ca="1" si="0">NOW()</f>
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.4">
       <c r="A4" s="14">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -4342,22 +4387,22 @@
         <v>313</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H67" ca="1" si="0">NOW()</f>
-        <v>42881.748556828701</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.4">
       <c r="A5" s="14">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>5</v>
@@ -4366,22 +4411,22 @@
         <v>313</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.4">
       <c r="A6" s="14">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>5</v>
@@ -4390,22 +4435,31 @@
         <v>313</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.4">
       <c r="A7" s="14">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>5</v>
@@ -4414,31 +4468,31 @@
         <v>313</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I7" s="19">
+        <v>-40</v>
+      </c>
+      <c r="J7" s="19">
+        <v>215</v>
       </c>
       <c r="K7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.4">
       <c r="A8" s="14">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>5</v>
@@ -4447,31 +4501,31 @@
         <v>313</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I8">
-        <v>-40</v>
-      </c>
-      <c r="J8">
-        <v>215</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.4">
       <c r="A9" s="14">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>5</v>
@@ -4480,31 +4534,22 @@
         <v>313</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>407</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.4">
       <c r="A10" s="14">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>5</v>
@@ -4513,22 +4558,22 @@
         <v>313</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.4">
       <c r="A11" s="14">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>5</v>
@@ -4537,22 +4582,22 @@
         <v>313</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="14">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>5</v>
@@ -4561,22 +4606,31 @@
         <v>313</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>35</v>
+      <c r="G12" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>765</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.4">
       <c r="A13" s="14">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>5</v>
@@ -4585,23 +4639,23 @@
         <v>313</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>37</v>
+      <c r="G13" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I13">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I13" s="19">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>765</v>
+      <c r="J13" s="19">
+        <v>255</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -4609,7 +4663,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.4">
       <c r="A14" s="14">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>5</v>
@@ -4618,31 +4672,31 @@
         <v>313</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I14">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I14" s="19">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>255</v>
+      <c r="J14" s="19">
+        <v>16383.75</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.4">
       <c r="A15" s="14">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>5</v>
@@ -4651,31 +4705,31 @@
         <v>313</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I15">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I15" s="19">
         <v>0</v>
       </c>
-      <c r="J15" s="20">
-        <v>16383.75</v>
+      <c r="J15" s="19">
+        <v>255</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.4">
       <c r="A16" s="14">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>5</v>
@@ -4684,31 +4738,31 @@
         <v>313</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>255</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I16" s="19">
+        <v>-64</v>
+      </c>
+      <c r="J16" s="19">
+        <v>63.5</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.4">
       <c r="A17" s="14">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>5</v>
@@ -4717,31 +4771,28 @@
         <v>313</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I17">
-        <v>-64</v>
-      </c>
-      <c r="J17">
-        <v>63.5</v>
-      </c>
-      <c r="K17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I17" s="19">
+        <v>-40</v>
+      </c>
+      <c r="J17" s="19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="14">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>5</v>
@@ -4750,28 +4801,31 @@
         <v>313</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I18">
-        <v>-40</v>
-      </c>
-      <c r="J18">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>655.35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.4">
       <c r="A19" s="14">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>5</v>
@@ -4780,31 +4834,31 @@
         <v>313</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>317</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I19">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I19" s="19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>655.35</v>
+      <c r="J19" s="19">
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.4">
       <c r="A20" s="14">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>5</v>
@@ -4813,31 +4867,25 @@
         <v>313</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.4">
       <c r="A21" s="14">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>5</v>
@@ -4846,25 +4894,22 @@
         <v>313</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K21" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.4" customHeight="1">
       <c r="A22" s="14">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>5</v>
@@ -4873,22 +4918,28 @@
         <v>313</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.4" customHeight="1">
       <c r="A23" s="14">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>5</v>
@@ -4897,28 +4948,25 @@
         <v>313</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I23" t="s">
-        <v>400</v>
-      </c>
-      <c r="J23" t="s">
-        <v>404</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="K23" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.4" customHeight="1">
       <c r="A24" s="14">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>5</v>
@@ -4927,25 +4975,22 @@
         <v>313</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K24" t="s">
-        <v>409</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.4" customHeight="1">
       <c r="A25" s="14">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>5</v>
@@ -4954,22 +4999,22 @@
         <v>313</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.4" customHeight="1">
       <c r="A26" s="14">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>5</v>
@@ -4978,22 +5023,22 @@
         <v>313</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.4" customHeight="1">
       <c r="A27" s="14">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
@@ -5002,22 +5047,22 @@
         <v>313</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.4" customHeight="1">
       <c r="A28" s="14">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -5026,22 +5071,22 @@
         <v>313</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.4" customHeight="1">
       <c r="A29" s="14">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -5050,22 +5095,22 @@
         <v>313</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.4" customHeight="1">
       <c r="A30" s="14">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -5074,22 +5119,22 @@
         <v>313</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="H30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.4">
       <c r="A31" s="14">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -5098,22 +5143,22 @@
         <v>313</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.4">
       <c r="A32" s="14">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
@@ -5122,22 +5167,22 @@
         <v>313</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.4">
       <c r="A33" s="14">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
@@ -5146,52 +5191,55 @@
         <v>313</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19">
+        <v>65535</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.4">
       <c r="A34" s="14">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>91</v>
+        <v>419</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="K34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.4" customHeight="1">
       <c r="A35" s="14">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
@@ -5200,25 +5248,28 @@
         <v>314</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" customHeight="1">
       <c r="A36" s="14">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -5227,28 +5278,31 @@
         <v>314</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>96</v>
+      <c r="G36" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="H36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I36">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I36" s="19">
         <v>0</v>
       </c>
       <c r="J36" s="19">
-        <v>65535</v>
+        <v>5177.2650000000003</v>
+      </c>
+      <c r="K36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1">
       <c r="A37" s="14">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>5</v>
@@ -5257,31 +5311,31 @@
         <v>314</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="H37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I37">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I37" s="19">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>5177.2650000000003</v>
+      <c r="J37" s="19">
+        <v>655350</v>
       </c>
       <c r="K37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.4" customHeight="1">
       <c r="A38" s="14">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -5290,23 +5344,23 @@
         <v>314</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>390</v>
+        <v>4</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="H38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="19">
-        <v>655350</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="K38" t="s">
         <v>38</v>
@@ -5314,7 +5368,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.4" customHeight="1">
       <c r="A39" s="14">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>5</v>
@@ -5323,31 +5377,25 @@
         <v>314</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H39" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I39" t="s">
-        <v>401</v>
-      </c>
-      <c r="J39" t="s">
-        <v>405</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.4" customHeight="1">
       <c r="A40" s="14">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -5356,25 +5404,22 @@
         <v>314</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K40" t="s">
-        <v>410</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.4" customHeight="1">
       <c r="A41" s="14">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>5</v>
@@ -5383,22 +5428,22 @@
         <v>314</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.4" customHeight="1">
       <c r="A42" s="14">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>5</v>
@@ -5407,22 +5452,22 @@
         <v>314</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.4" customHeight="1">
       <c r="A43" s="14">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>5</v>
@@ -5431,22 +5476,22 @@
         <v>314</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.4" customHeight="1">
       <c r="A44" s="14">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>5</v>
@@ -5455,22 +5500,22 @@
         <v>314</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.4" customHeight="1">
       <c r="A45" s="14">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>5</v>
@@ -5479,22 +5524,22 @@
         <v>314</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="14">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>5</v>
@@ -5503,22 +5548,28 @@
         <v>314</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>336</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="H46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.4">
       <c r="A47" s="14">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>5</v>
@@ -5527,28 +5578,31 @@
         <v>314</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>319</v>
+      <c r="G47" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="H47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I47" s="19">
+        <v>-100</v>
+      </c>
+      <c r="J47" s="19">
+        <v>99.2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.4">
       <c r="A48" s="14">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>5</v>
@@ -5557,23 +5611,23 @@
         <v>314</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I48">
-        <v>-100</v>
-      </c>
-      <c r="J48">
-        <v>99.2</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19">
+        <v>100</v>
       </c>
       <c r="K48" t="s">
         <v>407</v>
@@ -5581,7 +5635,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.4">
       <c r="A49" s="14">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>5</v>
@@ -5590,22 +5644,22 @@
         <v>314</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I49">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I49" s="19">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="19">
         <v>100</v>
       </c>
       <c r="K49" t="s">
@@ -5614,7 +5668,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.4">
       <c r="A50" s="14">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>5</v>
@@ -5623,23 +5677,23 @@
         <v>314</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I50">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I50" s="19">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>100</v>
+      <c r="J50" s="19">
+        <v>255</v>
       </c>
       <c r="K50" t="s">
         <v>407</v>
@@ -5647,7 +5701,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.4">
       <c r="A51" s="14">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>5</v>
@@ -5656,31 +5710,31 @@
         <v>314</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I51">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I51" s="19">
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>255</v>
+      <c r="J51" s="19">
+        <v>65535</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.4">
       <c r="A52" s="14">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>5</v>
@@ -5689,31 +5743,31 @@
         <v>314</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I52" s="19">
+        <v>-8192</v>
       </c>
       <c r="J52" s="19">
-        <v>65535</v>
+        <v>8191.75</v>
       </c>
       <c r="K52" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.4">
       <c r="A53" s="14">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>5</v>
@@ -5722,31 +5776,31 @@
         <v>314</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="I53" s="19">
-        <v>-8192</v>
-      </c>
-      <c r="J53">
-        <v>8191.75</v>
+        <v>0</v>
+      </c>
+      <c r="J53" s="19">
+        <v>255</v>
       </c>
       <c r="K53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.4" customHeight="1">
       <c r="A54" s="14">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>5</v>
@@ -5755,31 +5809,31 @@
         <v>314</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="H54" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>255</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.4" customHeight="1">
       <c r="A55" s="14">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>5</v>
@@ -5788,31 +5842,25 @@
         <v>314</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I55" t="s">
-        <v>402</v>
-      </c>
-      <c r="J55" t="s">
-        <v>406</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K55" t="s">
-        <v>38</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.4" customHeight="1">
       <c r="A56" s="14">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>5</v>
@@ -5821,25 +5869,22 @@
         <v>314</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H56" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K56" t="s">
-        <v>411</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.4" customHeight="1">
       <c r="A57" s="14">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>5</v>
@@ -5848,22 +5893,22 @@
         <v>314</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.4" customHeight="1">
       <c r="A58" s="14">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>5</v>
@@ -5872,22 +5917,22 @@
         <v>314</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E58">
         <v>4</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H58" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.4" customHeight="1">
       <c r="A59" s="14">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>5</v>
@@ -5896,22 +5941,22 @@
         <v>314</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H59" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.4" customHeight="1">
       <c r="A60" s="14">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>5</v>
@@ -5920,22 +5965,22 @@
         <v>314</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H60" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.4" customHeight="1">
       <c r="A61" s="14">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>5</v>
@@ -5944,22 +5989,22 @@
         <v>314</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E61">
         <v>4</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H61" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.4" customHeight="1">
       <c r="A62" s="14">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>5</v>
@@ -5968,22 +6013,28 @@
         <v>314</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="H62" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I62" s="19">
+        <v>-40</v>
+      </c>
+      <c r="J62" s="19">
+        <v>6513.5</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.4" customHeight="1">
       <c r="A63" s="14">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>5</v>
@@ -5992,28 +6043,25 @@
         <v>314</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H63" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I63">
-        <v>-40</v>
-      </c>
-      <c r="J63" s="20">
-        <v>6513.5</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="K63" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.4" customHeight="1">
       <c r="A64" s="14">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>5</v>
@@ -6022,25 +6070,22 @@
         <v>314</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H64" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K64" t="s">
-        <v>25</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.4" customHeight="1">
       <c r="A65" s="14">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>5</v>
@@ -6049,46 +6094,46 @@
         <v>314</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H65" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.4">
       <c r="A66" s="14">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="H66" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.4">
       <c r="A67" s="14">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>5</v>
@@ -6097,22 +6142,22 @@
         <v>315</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E67">
         <v>4</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H67" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>42881.748556828701</v>
+        <f t="shared" ref="H67:H130" ca="1" si="1">NOW()</f>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.4">
       <c r="A68" s="14">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>5</v>
@@ -6121,22 +6166,28 @@
         <v>315</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H68" s="18">
-        <f t="shared" ref="H68:H131" ca="1" si="1">NOW()</f>
-        <v>42881.748556828701</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I68" s="19">
+        <v>0</v>
+      </c>
+      <c r="J68" s="19">
+        <v>65.534999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.4">
       <c r="A69" s="14">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>5</v>
@@ -6145,28 +6196,31 @@
         <v>315</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H69" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I69">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I69" s="19">
         <v>0</v>
       </c>
-      <c r="J69">
-        <v>65.534999999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.4">
+      <c r="J69" s="19">
+        <v>25700</v>
+      </c>
+      <c r="K69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.4" customHeight="1">
       <c r="A70" s="14">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>5</v>
@@ -6175,31 +6229,31 @@
         <v>315</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H70" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I70">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I70" s="19">
         <v>0</v>
       </c>
-      <c r="J70" s="19">
-        <v>25700</v>
+      <c r="J70" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="K70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.4" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.4">
       <c r="A71" s="14">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>5</v>
@@ -6208,31 +6262,31 @@
         <v>315</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H71" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I71">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I71" s="19">
         <v>0</v>
       </c>
-      <c r="J71" t="s">
-        <v>104</v>
+      <c r="J71" s="19">
+        <v>100</v>
       </c>
       <c r="K71" t="s">
-        <v>407</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.4">
       <c r="A72" s="14">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>5</v>
@@ -6241,31 +6295,31 @@
         <v>315</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H72" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>100</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I72" s="19">
+        <v>-40</v>
+      </c>
+      <c r="J72" s="19">
+        <v>215</v>
       </c>
       <c r="K72" t="s">
-        <v>106</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.4">
       <c r="A73" s="14">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>5</v>
@@ -6274,31 +6328,31 @@
         <v>315</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H73" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I73">
-        <v>-40</v>
-      </c>
-      <c r="J73">
-        <v>215</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I73" s="19">
+        <v>0</v>
+      </c>
+      <c r="J73" s="19">
+        <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.4">
       <c r="A74" s="14">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>5</v>
@@ -6307,31 +6361,25 @@
         <v>315</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H74" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>100</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K74" t="s">
-        <v>25</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.4">
       <c r="A75" s="14">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>5</v>
@@ -6340,25 +6388,22 @@
         <v>315</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H75" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K75" t="s">
-        <v>407</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.4">
       <c r="A76" s="14">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>5</v>
@@ -6367,22 +6412,22 @@
         <v>315</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H76" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.4">
       <c r="A77" s="14">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>5</v>
@@ -6391,22 +6436,22 @@
         <v>315</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H77" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.4">
       <c r="A78" s="14">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>5</v>
@@ -6415,22 +6460,22 @@
         <v>315</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H78" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.4">
       <c r="A79" s="14">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>5</v>
@@ -6439,22 +6484,28 @@
         <v>315</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H79" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I79" s="19">
+        <v>0</v>
+      </c>
+      <c r="J79" s="19">
+        <v>65535</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.4">
       <c r="A80" s="14">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>5</v>
@@ -6463,28 +6514,25 @@
         <v>315</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H80" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="19">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="K80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="30.75" customHeight="1">
       <c r="A81" s="14">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>5</v>
@@ -6493,25 +6541,28 @@
         <v>315</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="H81" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="30.75" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.4" customHeight="1">
       <c r="A82" s="14">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>5</v>
@@ -6520,28 +6571,31 @@
         <v>315</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>170</v>
+        <v>362</v>
       </c>
       <c r="E82">
         <v>4</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>395</v>
+        <v>176</v>
       </c>
       <c r="H82" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I82" t="s">
-        <v>412</v>
-      </c>
-      <c r="J82" t="s">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I82" s="19">
+        <v>0</v>
+      </c>
+      <c r="J82" s="19">
+        <v>2550</v>
+      </c>
+      <c r="K82" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.4" customHeight="1">
+    <row r="83" spans="1:11" ht="15.4">
       <c r="A83" s="14">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>5</v>
@@ -6550,31 +6604,25 @@
         <v>315</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H83" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>2550</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K83" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.4">
       <c r="A84" s="14">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>5</v>
@@ -6583,25 +6631,28 @@
         <v>315</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H84" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K84" t="s">
-        <v>177</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I84" s="19">
+        <v>0</v>
+      </c>
+      <c r="J84" s="19">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.4">
       <c r="A85" s="14">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>5</v>
@@ -6610,28 +6661,31 @@
         <v>315</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H85" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I85">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I85" s="19">
         <v>0</v>
       </c>
-      <c r="J85">
-        <v>100</v>
+      <c r="J85" s="19">
+        <v>327.67500000000001</v>
+      </c>
+      <c r="K85" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.4">
       <c r="A86" s="14">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>5</v>
@@ -6640,31 +6694,31 @@
         <v>315</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H86" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>327.67500000000001</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I86" s="19">
+        <v>-32767</v>
+      </c>
+      <c r="J86" s="19">
+        <v>32768</v>
       </c>
       <c r="K86" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.4" customHeight="1">
       <c r="A87" s="14">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>5</v>
@@ -6673,31 +6727,31 @@
         <v>315</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="H87" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="I87" s="19">
-        <v>-32767</v>
+        <v>-100</v>
       </c>
       <c r="J87" s="19">
-        <v>32768</v>
+        <v>99.2</v>
       </c>
       <c r="K87" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.4" customHeight="1">
       <c r="A88" s="14">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>5</v>
@@ -6706,31 +6760,25 @@
         <v>315</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H88" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I88">
-        <v>-100</v>
-      </c>
-      <c r="J88">
-        <v>99.2</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K88" t="s">
-        <v>125</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.4" customHeight="1">
       <c r="A89" s="14">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>5</v>
@@ -6739,25 +6787,22 @@
         <v>315</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H89" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K89" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="30.75" customHeight="1">
       <c r="A90" s="14">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>5</v>
@@ -6766,22 +6811,22 @@
         <v>315</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H90" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="30.75" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="14">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>5</v>
@@ -6790,22 +6835,28 @@
         <v>315</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="G91" s="16" t="s">
-        <v>399</v>
+      <c r="G91" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="H91" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I91" s="19">
+        <v>0</v>
+      </c>
+      <c r="J91" s="19">
+        <v>655350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.4">
       <c r="A92" s="14">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>5</v>
@@ -6814,28 +6865,31 @@
         <v>315</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="E92">
-        <v>2</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>320</v>
+        <v>1</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="H92" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I92">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I92" s="19">
         <v>0</v>
       </c>
       <c r="J92" s="19">
-        <v>655350</v>
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.4">
       <c r="A93" s="14">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>5</v>
@@ -6844,31 +6898,31 @@
         <v>315</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H93" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I93">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I93" s="19">
         <v>0</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="19">
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>38</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.4">
       <c r="A94" s="14">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>5</v>
@@ -6877,23 +6931,23 @@
         <v>315</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H94" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>100</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I94" s="19">
+        <v>-40</v>
+      </c>
+      <c r="J94" s="19">
+        <v>210</v>
       </c>
       <c r="K94" t="s">
         <v>407</v>
@@ -6901,7 +6955,7 @@
     </row>
     <row r="95" spans="1:11" ht="15.4">
       <c r="A95" s="14">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>5</v>
@@ -6910,31 +6964,31 @@
         <v>315</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H95" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I95">
-        <v>-40</v>
-      </c>
-      <c r="J95">
-        <v>210</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I95" s="19">
+        <v>-210</v>
+      </c>
+      <c r="J95" s="19">
+        <v>301.99200000000002</v>
       </c>
       <c r="K95" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.4">
       <c r="A96" s="14">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>5</v>
@@ -6943,31 +6997,31 @@
         <v>315</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H96" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I96">
-        <v>-210</v>
-      </c>
-      <c r="J96">
-        <v>301.99200000000002</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I96" s="19">
+        <v>0</v>
+      </c>
+      <c r="J96" s="19">
+        <v>3276.75</v>
       </c>
       <c r="K96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="30.75" customHeight="1">
       <c r="A97" s="14">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>5</v>
@@ -6976,58 +7030,49 @@
         <v>315</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H97" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>3276.75</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="30.75" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.4">
       <c r="A98" s="14">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>206</v>
+        <v>421</v>
       </c>
       <c r="H98" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.4" customHeight="1">
       <c r="A99" s="14">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>5</v>
@@ -7036,22 +7081,28 @@
         <v>316</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H99" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I99" s="19">
+        <v>-125</v>
+      </c>
+      <c r="J99" s="19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.4">
       <c r="A100" s="14">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>5</v>
@@ -7060,28 +7111,31 @@
         <v>316</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H100" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I100">
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I100" s="19">
         <v>-125</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="19">
         <v>125</v>
+      </c>
+      <c r="K100" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.4">
       <c r="A101" s="14">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>5</v>
@@ -7090,23 +7144,23 @@
         <v>316</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H101" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I101">
-        <v>-125</v>
-      </c>
-      <c r="J101">
-        <v>125</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I101" s="19">
+        <v>0</v>
+      </c>
+      <c r="J101" s="19">
+        <v>65535</v>
       </c>
       <c r="K101" t="s">
         <v>407</v>
@@ -7114,7 +7168,7 @@
     </row>
     <row r="102" spans="1:11" ht="15.4">
       <c r="A102" s="14">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>5</v>
@@ -7123,31 +7177,31 @@
         <v>316</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H102" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
+        <v>42881.84097326389</v>
+      </c>
+      <c r="I102" s="19">
+        <v>-125</v>
       </c>
       <c r="J102" s="19">
-        <v>65535</v>
+        <v>125</v>
       </c>
       <c r="K102" t="s">
-        <v>407</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.4">
       <c r="A103" s="14">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>5</v>
@@ -7156,31 +7210,25 @@
         <v>316</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H103" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="I103">
-        <v>-125</v>
-      </c>
-      <c r="J103">
-        <v>125</v>
+        <v>42881.84097326389</v>
       </c>
       <c r="K103" t="s">
-        <v>214</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.4">
       <c r="A104" s="14">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>5</v>
@@ -7189,25 +7237,22 @@
         <v>316</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H104" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-      <c r="K104" t="s">
-        <v>407</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.4">
       <c r="A105" s="14">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>5</v>
@@ -7216,22 +7261,22 @@
         <v>316</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="H105" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.4">
       <c r="A106" s="14">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>5</v>
@@ -7240,22 +7285,22 @@
         <v>316</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="H106" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.4">
       <c r="A107" s="14">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>5</v>
@@ -7264,22 +7309,22 @@
         <v>316</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E107">
         <v>7</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H107" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="46.15" customHeight="1">
       <c r="A108" s="14">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>5</v>
@@ -7288,22 +7333,22 @@
         <v>316</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>379</v>
+        <v>225</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H108" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="46.15" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.4">
       <c r="A109" s="14">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>5</v>
@@ -7312,22 +7357,22 @@
         <v>316</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H109" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="30.75" customHeight="1">
       <c r="A110" s="14">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>5</v>
@@ -7336,22 +7381,22 @@
         <v>316</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E110">
         <v>5</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H110" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="30.75" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.4">
       <c r="A111" s="14">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>5</v>
@@ -7360,22 +7405,22 @@
         <v>316</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H111" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.4">
       <c r="A112" s="14">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>5</v>
@@ -7384,22 +7429,22 @@
         <v>316</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H112" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.4" customHeight="1">
       <c r="A113" s="14">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>5</v>
@@ -7408,22 +7453,22 @@
         <v>316</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H113" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.4">
       <c r="A114" s="14">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>5</v>
@@ -7432,22 +7477,22 @@
         <v>316</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H114" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.4" customHeight="1">
       <c r="A115" s="14">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>5</v>
@@ -7456,22 +7501,22 @@
         <v>316</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H115" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.4">
       <c r="A116" s="14">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>5</v>
@@ -7480,22 +7525,22 @@
         <v>316</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E116">
         <v>5</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H116" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.4">
       <c r="A117" s="14">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>5</v>
@@ -7504,22 +7549,22 @@
         <v>316</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E117">
         <v>5</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H117" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.4">
       <c r="A118" s="14">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>5</v>
@@ -7528,22 +7573,22 @@
         <v>316</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E118">
         <v>5</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H118" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.4">
       <c r="A119" s="14">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>5</v>
@@ -7552,22 +7597,22 @@
         <v>316</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H119" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.4">
       <c r="A120" s="14">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>5</v>
@@ -7576,7 +7621,7 @@
         <v>316</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E120">
         <v>7</v>
@@ -7586,12 +7631,12 @@
       </c>
       <c r="H120" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.4" customHeight="1">
       <c r="A121" s="14">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>5</v>
@@ -7600,22 +7645,22 @@
         <v>316</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H121" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.4" customHeight="1">
       <c r="A122" s="14">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>5</v>
@@ -7624,22 +7669,22 @@
         <v>316</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="E122">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H122" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.4" customHeight="1">
       <c r="A123" s="14">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>5</v>
@@ -7648,22 +7693,22 @@
         <v>316</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E123">
         <v>9</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H123" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.4" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.4">
       <c r="A124" s="14">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>5</v>
@@ -7672,22 +7717,22 @@
         <v>316</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H124" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.4">
       <c r="A125" s="14">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>5</v>
@@ -7696,7 +7741,7 @@
         <v>316</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E125">
         <v>7</v>
@@ -7706,12 +7751,12 @@
       </c>
       <c r="H125" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.4">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30.75" customHeight="1">
       <c r="A126" s="14">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>5</v>
@@ -7720,22 +7765,22 @@
         <v>316</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H126" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="30.75" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="28.5" customHeight="1">
       <c r="A127" s="14">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>5</v>
@@ -7744,22 +7789,22 @@
         <v>316</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E127">
-        <v>9</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="H127" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.5" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14.25" customHeight="1">
       <c r="A128" s="14">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B128" s="15" t="s">
         <v>5</v>
@@ -7768,22 +7813,22 @@
         <v>316</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H128" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="14.25" customHeight="1">
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.4">
       <c r="A129" s="14">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>5</v>
@@ -7792,22 +7837,22 @@
         <v>316</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>255</v>
+        <v>13</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="H129" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.4">
       <c r="A130" s="14">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>5</v>
@@ -7816,74 +7861,50 @@
         <v>316</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130">
-        <v>13</v>
+        <v>389</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>257</v>
+        <v>422</v>
       </c>
       <c r="H130" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="15.4">
-      <c r="A131" s="14">
-        <v>1128</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="H131" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>42881.748556828701</v>
+        <v>42881.84097326389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="I140" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="I141" t="s">
+      <c r="I141" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="19" t="s">
         <v>403</v>
       </c>
+      <c r="K141" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="I142" t="s">
-        <v>403</v>
-      </c>
-      <c r="J142" t="s">
-        <v>403</v>
-      </c>
       <c r="K142" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="K143" t="s">
-        <v>403</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" location="Absolute.2C_gauge_and_differential_pressures_-_zero_reference" tooltip="Pressure measurement" display="https://en.wikipedia.org/wiki/Pressure_measurement - Absolute.2C_gauge_and_differential_pressures_-_zero_reference"/>
-    <hyperlink ref="G19" r:id="rId2" tooltip="Mass airflow sensor" display="https://en.wikipedia.org/wiki/Mass_airflow_sensor"/>
-    <hyperlink ref="G37" r:id="rId3" tooltip="Fuel rail" display="https://en.wikipedia.org/wiki/Fuel_rail"/>
-    <hyperlink ref="G38" r:id="rId4" tooltip="Fuel rail" display="https://en.wikipedia.org/wiki/Fuel_rail"/>
-    <hyperlink ref="G47" r:id="rId5" tooltip="Exhaust gas recirculation" display="https://en.wikipedia.org/wiki/Exhaust_gas_recirculation"/>
-    <hyperlink ref="G92" r:id="rId6" tooltip="Fuel rail" display="https://en.wikipedia.org/wiki/Fuel_rail"/>
-    <hyperlink ref="G128" r:id="rId7" tooltip="Not-To-Exceed" display="https://en.wikipedia.org/wiki/Not-To-Exceed"/>
-    <hyperlink ref="G129" r:id="rId8" tooltip="Not-To-Exceed" display="https://en.wikipedia.org/wiki/Not-To-Exceed"/>
+    <hyperlink ref="G12" r:id="rId1" location="Absolute.2C_gauge_and_differential_pressures_-_zero_reference" tooltip="Pressure measurement" display="https://en.wikipedia.org/wiki/Pressure_measurement - Absolute.2C_gauge_and_differential_pressures_-_zero_reference"/>
+    <hyperlink ref="G18" r:id="rId2" tooltip="Mass airflow sensor" display="https://en.wikipedia.org/wiki/Mass_airflow_sensor"/>
+    <hyperlink ref="G36" r:id="rId3" tooltip="Fuel rail" display="https://en.wikipedia.org/wiki/Fuel_rail"/>
+    <hyperlink ref="G37" r:id="rId4" tooltip="Fuel rail" display="https://en.wikipedia.org/wiki/Fuel_rail"/>
+    <hyperlink ref="G46" r:id="rId5" tooltip="Exhaust gas recirculation" display="https://en.wikipedia.org/wiki/Exhaust_gas_recirculation"/>
+    <hyperlink ref="G91" r:id="rId6" tooltip="Fuel rail" display="https://en.wikipedia.org/wiki/Fuel_rail"/>
+    <hyperlink ref="G127" r:id="rId7" tooltip="Not-To-Exceed" display="https://en.wikipedia.org/wiki/Not-To-Exceed"/>
+    <hyperlink ref="G128" r:id="rId8" tooltip="Not-To-Exceed" display="https://en.wikipedia.org/wiki/Not-To-Exceed"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -7908,22 +7929,22 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7931,12 +7952,12 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4">
@@ -8051,22 +8072,22 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>1</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -8074,12 +8095,12 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8">
@@ -8092,9 +8113,9 @@
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
@@ -8107,9 +8128,9 @@
       <c r="D14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="7" t="s">
         <v>31</v>
       </c>
@@ -8124,9 +8145,9 @@
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="7" t="s">
         <v>32</v>
       </c>
@@ -8350,10 +8371,10 @@
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="24">
+      <c r="B26" s="21">
         <v>14</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="20">
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -8373,8 +8394,8 @@
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="24"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
@@ -8390,8 +8411,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="24"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="7" t="s">
         <v>66</v>
       </c>
@@ -8401,10 +8422,10 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="24">
+      <c r="B29" s="21">
         <v>15</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="20">
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -8418,8 +8439,8 @@
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="24"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="7" t="s">
         <v>65</v>
       </c>
@@ -8429,8 +8450,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="24"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="7" t="s">
         <v>66</v>
       </c>
@@ -8440,10 +8461,10 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="24">
+      <c r="B32" s="21">
         <v>16</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="20">
         <v>2</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -8457,8 +8478,8 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="24"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
@@ -8468,8 +8489,8 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="24"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7" t="s">
         <v>66</v>
       </c>
@@ -8479,10 +8500,10 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="24">
+      <c r="B35" s="21">
         <v>17</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="20">
         <v>2</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -8494,8 +8515,8 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="24"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -8505,8 +8526,8 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="24"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="7" t="s">
         <v>66</v>
       </c>
@@ -8516,10 +8537,10 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="24">
+      <c r="B38" s="21">
         <v>18</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="20">
         <v>2</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -8531,8 +8552,8 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="24"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
@@ -8542,8 +8563,8 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="24"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="7" t="s">
         <v>66</v>
       </c>
@@ -8553,10 +8574,10 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="24">
+      <c r="B41" s="21">
         <v>19</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="20">
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -8568,8 +8589,8 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="24"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
@@ -8579,8 +8600,8 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="24"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="7" t="s">
         <v>66</v>
       </c>
@@ -8590,10 +8611,10 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="20">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -8605,8 +8626,8 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="24"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -8616,8 +8637,8 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="24"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="7" t="s">
         <v>66</v>
       </c>
@@ -8627,10 +8648,10 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="20">
         <v>2</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -8642,8 +8663,8 @@
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="24"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -8653,8 +8674,8 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="24"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="7" t="s">
         <v>66</v>
       </c>
@@ -8698,29 +8719,29 @@
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="20">
         <v>1</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="24"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="7" t="s">
         <v>89</v>
       </c>
@@ -8835,10 +8856,10 @@
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="24">
+      <c r="B59" s="21">
         <v>24</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="20">
         <v>4</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -8858,8 +8879,8 @@
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="24"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="7" t="s">
         <v>102</v>
       </c>
@@ -8875,8 +8896,8 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="24"/>
-      <c r="C61" s="22"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="7" t="s">
         <v>103</v>
       </c>
@@ -8886,10 +8907,10 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="24">
+      <c r="B62" s="21">
         <v>25</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="20">
         <v>4</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -8903,8 +8924,8 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="24"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="7" t="s">
         <v>102</v>
       </c>
@@ -8914,8 +8935,8 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="24"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="7" t="s">
         <v>103</v>
       </c>
@@ -8925,10 +8946,10 @@
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="24">
+      <c r="B65" s="21">
         <v>26</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="20">
         <v>4</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -8940,8 +8961,8 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="24"/>
-      <c r="C66" s="22"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="7" t="s">
         <v>102</v>
       </c>
@@ -8951,8 +8972,8 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="24"/>
-      <c r="C67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="7" t="s">
         <v>103</v>
       </c>
@@ -8962,10 +8983,10 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="24">
+      <c r="B68" s="21">
         <v>27</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="20">
         <v>4</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -8977,8 +8998,8 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="24"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7" t="s">
         <v>102</v>
       </c>
@@ -8988,8 +9009,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="24"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="7" t="s">
         <v>103</v>
       </c>
@@ -8999,10 +9020,10 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="24">
+      <c r="B71" s="21">
         <v>28</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="20">
         <v>4</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -9014,8 +9035,8 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="24"/>
-      <c r="C72" s="22"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="7" t="s">
         <v>102</v>
       </c>
@@ -9025,8 +9046,8 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="24"/>
-      <c r="C73" s="22"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="7" t="s">
         <v>103</v>
       </c>
@@ -9036,10 +9057,10 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="24">
+      <c r="B74" s="21">
         <v>29</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="20">
         <v>4</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -9051,8 +9072,8 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="24"/>
-      <c r="C75" s="22"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="7" t="s">
         <v>102</v>
       </c>
@@ -9062,8 +9083,8 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="24"/>
-      <c r="C76" s="22"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="7" t="s">
         <v>103</v>
       </c>
@@ -9073,10 +9094,10 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="20">
         <v>4</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -9088,8 +9109,8 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="24"/>
-      <c r="C78" s="22"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="7" t="s">
         <v>102</v>
       </c>
@@ -9099,8 +9120,8 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="24"/>
-      <c r="C79" s="22"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="7" t="s">
         <v>103</v>
       </c>
@@ -9110,10 +9131,10 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="20">
         <v>4</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -9125,8 +9146,8 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="24"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="7" t="s">
         <v>102</v>
       </c>
@@ -9136,8 +9157,8 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="24"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="7" t="s">
         <v>103</v>
       </c>
@@ -9285,22 +9306,22 @@
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="24">
+      <c r="B89" s="21">
         <v>32</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="20">
         <v>2</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="26">
+      <c r="E89" s="23">
         <v>-8192</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="20">
         <v>8191.75</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H89" s="9" t="s">
@@ -9308,12 +9329,12 @@
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="24"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
       <c r="H90" s="9" t="s">
         <v>126</v>
       </c>
@@ -9342,10 +9363,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="24">
+      <c r="B92" s="21">
         <v>34</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="20">
         <v>4</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -9365,8 +9386,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="24"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="7" t="s">
         <v>102</v>
       </c>
@@ -9382,8 +9403,8 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="24"/>
-      <c r="C94" s="22"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="7" t="s">
         <v>128</v>
       </c>
@@ -9393,10 +9414,10 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="24">
+      <c r="B95" s="21">
         <v>35</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="20">
         <v>4</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -9410,8 +9431,8 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="24"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="7" t="s">
         <v>102</v>
       </c>
@@ -9421,8 +9442,8 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="24"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="7" t="s">
         <v>128</v>
       </c>
@@ -9432,10 +9453,10 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="24">
+      <c r="B98" s="21">
         <v>36</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="20">
         <v>4</v>
       </c>
       <c r="D98" s="7" t="s">
@@ -9449,8 +9470,8 @@
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="24"/>
-      <c r="C99" s="22"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="7" t="s">
         <v>102</v>
       </c>
@@ -9460,8 +9481,8 @@
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="24"/>
-      <c r="C100" s="22"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="7" t="s">
         <v>128</v>
       </c>
@@ -9471,10 +9492,10 @@
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="24">
+      <c r="B101" s="21">
         <v>37</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C101" s="20">
         <v>4</v>
       </c>
       <c r="D101" s="7" t="s">
@@ -9486,8 +9507,8 @@
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="24"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="7" t="s">
         <v>102</v>
       </c>
@@ -9497,8 +9518,8 @@
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="24"/>
-      <c r="C103" s="22"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="7" t="s">
         <v>128</v>
       </c>
@@ -9508,10 +9529,10 @@
       <c r="H103" s="7"/>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="24">
+      <c r="B104" s="21">
         <v>38</v>
       </c>
-      <c r="C104" s="22">
+      <c r="C104" s="20">
         <v>4</v>
       </c>
       <c r="D104" s="7" t="s">
@@ -9523,8 +9544,8 @@
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="24"/>
-      <c r="C105" s="22"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="7" t="s">
         <v>102</v>
       </c>
@@ -9534,8 +9555,8 @@
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="24"/>
-      <c r="C106" s="22"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="20"/>
       <c r="D106" s="7" t="s">
         <v>128</v>
       </c>
@@ -9545,10 +9566,10 @@
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="24">
+      <c r="B107" s="21">
         <v>39</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="20">
         <v>4</v>
       </c>
       <c r="D107" s="7" t="s">
@@ -9560,8 +9581,8 @@
       <c r="H107" s="7"/>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="24"/>
-      <c r="C108" s="22"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="7" t="s">
         <v>102</v>
       </c>
@@ -9571,8 +9592,8 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="24"/>
-      <c r="C109" s="22"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="7" t="s">
         <v>128</v>
       </c>
@@ -9582,10 +9603,10 @@
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="22">
+      <c r="C110" s="20">
         <v>4</v>
       </c>
       <c r="D110" s="7" t="s">
@@ -9597,8 +9618,8 @@
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="24"/>
-      <c r="C111" s="22"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="20"/>
       <c r="D111" s="7" t="s">
         <v>102</v>
       </c>
@@ -9608,8 +9629,8 @@
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="24"/>
-      <c r="C112" s="22"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="20"/>
       <c r="D112" s="7" t="s">
         <v>128</v>
       </c>
@@ -9619,10 +9640,10 @@
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="2:8">
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113" s="20">
         <v>4</v>
       </c>
       <c r="D113" s="7" t="s">
@@ -9634,8 +9655,8 @@
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="2:8">
-      <c r="B114" s="24"/>
-      <c r="C114" s="22"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="7" t="s">
         <v>102</v>
       </c>
@@ -9645,8 +9666,8 @@
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="24"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="7" t="s">
         <v>128</v>
       </c>
@@ -9665,16 +9686,16 @@
       <c r="D116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="22">
+      <c r="E116" s="20">
         <v>-40</v>
       </c>
-      <c r="F116" s="27">
+      <c r="F116" s="25">
         <v>6513.5</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="H116" s="24" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9688,10 +9709,10 @@
       <c r="D117" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="28"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="24"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="4" t="s">
@@ -9703,10 +9724,10 @@
       <c r="D118" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E118" s="22"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="28"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="24"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="4" t="s">
@@ -9718,10 +9739,10 @@
       <c r="D119" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="28"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="4">
@@ -9882,16 +9903,16 @@
       <c r="D127" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E127" s="22">
+      <c r="E127" s="20">
         <v>0</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="20">
         <v>100</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H127" s="28" t="s">
+      <c r="H127" s="24" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9905,10 +9926,10 @@
       <c r="D128" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="28"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="24"/>
     </row>
     <row r="129" spans="2:8">
       <c r="B129" s="4">
@@ -9920,10 +9941,10 @@
       <c r="D129" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="28"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="24"/>
     </row>
     <row r="130" spans="2:8">
       <c r="B130" s="4" t="s">
@@ -9935,10 +9956,10 @@
       <c r="D130" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="28"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="24"/>
     </row>
     <row r="131" spans="2:8">
       <c r="B131" s="4" t="s">
@@ -9950,10 +9971,10 @@
       <c r="D131" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="28"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="24"/>
     </row>
     <row r="132" spans="2:8">
       <c r="B132" s="4" t="s">
@@ -9965,10 +9986,10 @@
       <c r="D132" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="28"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="24"/>
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="4" t="s">
@@ -9980,16 +10001,16 @@
       <c r="D133" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E133" s="22">
+      <c r="E133" s="20">
         <v>0</v>
       </c>
-      <c r="F133" s="26">
+      <c r="F133" s="23">
         <v>65535</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H133" s="28" t="s">
+      <c r="H133" s="24" t="s">
         <v>93</v>
       </c>
     </row>
@@ -10003,10 +10024,10 @@
       <c r="D134" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="28"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="24"/>
     </row>
     <row r="135" spans="2:8" ht="15">
       <c r="B135" s="4" t="s">
@@ -10150,13 +10171,13 @@
       <c r="D141" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E141" s="22">
+      <c r="E141" s="20">
         <v>-100</v>
       </c>
-      <c r="F141" s="22">
+      <c r="F141" s="20">
         <v>99.2</v>
       </c>
-      <c r="G141" s="22" t="s">
+      <c r="G141" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H141" s="9" t="s">
@@ -10173,9 +10194,9 @@
       <c r="D142" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
       <c r="H142" s="9" t="s">
         <v>70</v>
       </c>
@@ -10190,9 +10211,9 @@
       <c r="D143" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
       <c r="H143" s="9"/>
     </row>
     <row r="144" spans="2:8">
@@ -10205,9 +10226,9 @@
       <c r="D144" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="2:8">
@@ -10452,22 +10473,22 @@
       </c>
     </row>
     <row r="156" spans="2:8">
-      <c r="B156" s="24">
+      <c r="B156" s="21">
         <v>64</v>
       </c>
-      <c r="C156" s="22">
-        <v>5</v>
-      </c>
-      <c r="D156" s="25" t="s">
+      <c r="C156" s="20">
+        <v>5</v>
+      </c>
+      <c r="D156" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="E156" s="22">
+      <c r="E156" s="20">
         <v>-125</v>
       </c>
-      <c r="F156" s="22">
+      <c r="F156" s="20">
         <v>125</v>
       </c>
-      <c r="G156" s="22" t="s">
+      <c r="G156" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H156" s="7" t="s">
@@ -10475,45 +10496,45 @@
       </c>
     </row>
     <row r="157" spans="2:8">
-      <c r="B157" s="24"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
       <c r="H157" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="158" spans="2:8">
-      <c r="B158" s="24"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="22"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
       <c r="H158" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="159" spans="2:8">
-      <c r="B159" s="24"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
       <c r="H159" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="160" spans="2:8">
-      <c r="B160" s="24"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
       <c r="H160" s="7" t="s">
         <v>220</v>
       </c>
@@ -11101,22 +11122,22 @@
       </c>
     </row>
     <row r="199" spans="2:8">
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D199" s="25" t="s">
+      <c r="D199" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="E199" s="22" t="s">
+      <c r="E199" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F199" s="22" t="s">
+      <c r="F199" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="G199" s="22" t="s">
+      <c r="G199" s="20" t="s">
         <v>272</v>
       </c>
       <c r="H199" s="7" t="s">
@@ -11124,18 +11145,105 @@
       </c>
     </row>
     <row r="200" spans="2:8">
-      <c r="B200" s="24"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="22"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
       <c r="H200" s="7" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="F116:F119"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="E127:E132"/>
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="G127:G132"/>
+    <mergeCell ref="H127:H132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="G141:G144"/>
     <mergeCell ref="G199:G200"/>
     <mergeCell ref="B156:B160"/>
     <mergeCell ref="C156:C160"/>
@@ -11148,93 +11256,6 @@
     <mergeCell ref="D199:D200"/>
     <mergeCell ref="E199:E200"/>
     <mergeCell ref="F199:F200"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="E116:E119"/>
-    <mergeCell ref="F116:F119"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="H116:H119"/>
-    <mergeCell ref="E127:E132"/>
-    <mergeCell ref="F127:F132"/>
-    <mergeCell ref="G127:G132"/>
-    <mergeCell ref="H127:H132"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" location="cite_note-formula-3" display="https://en.m.wikipedia.org/wiki/OBD-II_PIDs - cite_note-formula-3"/>
